--- a/build/nginx/files/1.xlsx
+++ b/build/nginx/files/1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t xml:space="preserve">offer_id</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">iphone_XS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">iphone_XS_MAX</t>
@@ -70,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -158,127 +162,127 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>42000</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>45000</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>51000</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>6</v>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>60000</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>62999</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
